--- a/UseCaseIScenarij/PreuzimanjeInformacijaSaSenzora.xlsx
+++ b/UseCaseIScenarij/PreuzimanjeInformacijaSaSenzora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Naziv</t>
   </si>
@@ -114,7 +114,7 @@
         <family val="1"/>
         <charset val="238"/>
       </rPr>
-      <t>Senzori vrše očitanje traženih parametara i unose podatke u bazu.</t>
+      <t>Sistem upozorava zemljoradnika na nisku vlažnost zemljišta.</t>
     </r>
   </si>
   <si>
@@ -139,12 +139,104 @@
         <family val="1"/>
         <charset val="238"/>
       </rPr>
+      <t>Zemljoradnik pokreće sistem za navodnjavanje.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Sistem za navodnjavanje se pokreće.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Senzori vrše očitanje traženih parametara.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">.   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
       <t>Zemljoradnik putem sistema traži određenu informaciju o stanju.</t>
     </r>
   </si>
   <si>
     <r>
-      <t>3.</t>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -168,79 +260,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Sistem upozorava zemljoradnika na nisku vlažnost zemljišta.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Zemljoradnik pokreće sistem za navodnjavanje.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Sistem za navodnjavanje se pokreće.</t>
-    </r>
+    <t>2. Sistem unosi podatke sa senzora u bazu.</t>
   </si>
 </sst>
 </file>
@@ -705,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -719,7 +739,7 @@
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="79.5" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="174" thickBot="1">
+    <row r="2" spans="1:4" ht="32.25" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -735,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="95.25" thickBot="1">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -743,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -751,13 +771,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="63.75" thickBot="1">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1">
       <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="111" thickBot="1">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -765,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="79.5" thickBot="1">
+    <row r="7" spans="1:4" ht="32.25" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -773,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48" thickBot="1">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -781,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32.25" thickBot="1">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -789,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="409.6" thickBot="1">
+    <row r="10" spans="1:4" ht="95.25" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -797,7 +817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="284.25" thickBot="1">
+    <row r="11" spans="1:4" ht="48" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -806,7 +826,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:4" ht="63.75" thickBot="1">
+    <row r="15" spans="1:4" ht="16.5" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -820,67 +840,75 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="409.6" thickBot="1">
+    <row r="16" spans="1:4" ht="32.25" thickBot="1">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="409.6" thickBot="1">
-      <c r="A17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="409.6" thickBot="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="18" spans="1:4" ht="48" thickBot="1">
+      <c r="A18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:4" ht="63.75" thickBot="1">
-      <c r="A21" s="1" t="s">
+    <row r="19" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="409.6" thickBot="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="409.6" thickBot="1">
-      <c r="A23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+    <row r="23" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="409.6" thickBot="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:4" ht="32.25" thickBot="1">
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="9" t="s">
-        <v>30</v>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="48" thickBot="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
